--- a/data/fractionation/test_fract_adjust/230419 Batch 146 Water yr Summary.xlsx
+++ b/data/fractionation/test_fract_adjust/230419 Batch 146 Water yr Summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Banfield\WaterYear\SIP\data\fractionation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Banfield\WaterYear\SIP\data\fractionation\test_fract_adjust\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264F141A-C92D-4A4A-8DB9-7DBD88FC8189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD0D1FC-4090-4B5F-B3CC-98BDB6B9C6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-9270" windowWidth="38620" windowHeight="21100" tabRatio="622" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="622" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="22" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="213">
   <si>
     <t>calculated density p(20)</t>
   </si>
@@ -683,9 +683,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -795,9 +792,6 @@
   </si>
   <si>
     <t>Combined fractions</t>
-  </si>
-  <si>
-    <t>Fractions 9 and 10 were combined</t>
   </si>
   <si>
     <t>Fractions 10 and 11 were combined</t>
@@ -2466,132 +2460,17 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$R$5:$R$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.7638021510000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7607151040000009</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7563440640000021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7497875040000022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7443237039999993</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7366743840000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7312105840000012</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7257467840000018</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7204742169999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7150104170000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7084538570000021</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7029900570000027</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6975262569999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6920624570000005</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6855058970000023</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.680042097000003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6713000170000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6417954970000022</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.5392672900000015</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Summary!#REF!</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$S$5:$S$23</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-5.1310444323855687E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.098054782064518E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.10404186040348253</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.38045778617604692</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.86462855159622498</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.134539881499864</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.93324653975675</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.9570500992424602</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.516503845024912</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.4614989170028219</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.0075555823412463</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6526663992140147</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.87072908873060895</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.51497404053780282</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.28934871395737832</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.16708993260430352</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.9071990403470409E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.126975877008804</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.10738762238853145</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2701,7 +2580,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$U$5:$U$23</c:f>
+              <c:f>Summary!$R$5:$R$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2767,7 +2646,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$V$5:$V$23</c:f>
+              <c:f>Summary!$S$5:$S$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -4288,75 +4167,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$R$4:$R$25</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.7616166310000008</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7638021510000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7607151040000009</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7563440640000021</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7497875040000022</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7443237039999993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7366743840000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7312105840000012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7257467840000018</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7204742169999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7150104170000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7084538570000021</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7029900570000027</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6975262569999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6920624570000005</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6855058970000023</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.680042097000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6713000170000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6417954970000022</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.5392672900000015</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.3032311300000003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.1185546900000016</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4611,7 +4427,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$U$4:$U$25</c:f>
+              <c:f>Summary!$R$4:$R$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4804,7 +4620,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$X$4:$X$25</c:f>
+              <c:f>Summary!$U$4:$U$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4997,7 +4813,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AA$4:$AA$25</c:f>
+              <c:f>Summary!$X$4:$X$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5190,7 +5006,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AD$4:$AD$25</c:f>
+              <c:f>Summary!$AA$4:$AA$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5383,7 +5199,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AG$4:$AG$25</c:f>
+              <c:f>Summary!$AD$4:$AD$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6457,7 +6273,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$X$4:$X$25</c:f>
+              <c:f>Summary!$U$4:$U$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6532,7 +6348,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$Y$4:$Y$25</c:f>
+              <c:f>Summary!$V$4:$V$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6650,7 +6466,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AA$4:$AA$25</c:f>
+              <c:f>Summary!$X$4:$X$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6725,7 +6541,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AB$4:$AB$25</c:f>
+              <c:f>Summary!$Y$4:$Y$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6843,7 +6659,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AD$5:$AD$23</c:f>
+              <c:f>Summary!$AA$5:$AA$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -6909,7 +6725,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AE$5:$AE$23</c:f>
+              <c:f>Summary!$AB$5:$AB$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -7018,7 +6834,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AG$5:$AG$23</c:f>
+              <c:f>Summary!$AD$5:$AD$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -7084,7 +6900,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AH$5:$AH$23</c:f>
+              <c:f>Summary!$AE$5:$AE$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -9457,7 +9273,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>277436</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>93134</xdr:rowOff>
     </xdr:to>
@@ -9487,12 +9303,12 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>545494</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>100088</xdr:rowOff>
@@ -9926,10 +9742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E138FBF1-D534-4F7E-950C-764D2E6B8C19}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="G23" sqref="G22:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45"/>
@@ -9947,44 +9763,44 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>193</v>
-      </c>
       <c r="E4" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>200</v>
-      </c>
       <c r="I4" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9997,7 +9813,7 @@
         <v>Tube A</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D5" s="67">
         <v>45035</v>
@@ -10027,7 +9843,7 @@
         <v>Tube B</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D6" s="67">
         <v>45035</v>
@@ -10057,7 +9873,7 @@
         <v>Tube C</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D7" s="67">
         <v>45035</v>
@@ -10087,7 +9903,7 @@
         <v>Tube D</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D8" s="67">
         <v>45035</v>
@@ -10117,7 +9933,7 @@
         <v>Tube E</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D9" s="67">
         <v>45035</v>
@@ -10139,15 +9955,15 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="66">
-        <f>TubeLoading!F34</f>
-        <v>4009</v>
+        <f>TubeLoading!F36</f>
+        <v>2455</v>
       </c>
       <c r="B10" s="66" t="str">
-        <f>TubeLoading!A34</f>
-        <v>Tube F</v>
+        <f>TubeLoading!A36</f>
+        <v>Tube H</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D10" s="67">
         <v>45035</v>
@@ -10156,64 +9972,61 @@
         <v>116</v>
       </c>
       <c r="G10" s="66">
-        <f>TubeLoading!J34</f>
-        <v>3999.9999999999995</v>
+        <f>TubeLoading!J36</f>
+        <v>3671.9999999999995</v>
       </c>
       <c r="H10" s="50">
         <f>Summary!S26</f>
-        <v>43.316710745177964</v>
+        <v>73.175961303571839</v>
       </c>
       <c r="I10" s="113">
         <v>37</v>
       </c>
       <c r="J10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="66">
-        <f>TubeLoading!F36</f>
-        <v>2455</v>
+        <f>TubeLoading!F37</f>
+        <v>2393</v>
       </c>
       <c r="B11" s="66" t="str">
-        <f>TubeLoading!A36</f>
-        <v>Tube H</v>
+        <f>TubeLoading!A37</f>
+        <v>Tube I</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D11" s="67">
         <v>45035</v>
       </c>
       <c r="E11">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="G11" s="66">
-        <f>TubeLoading!J36</f>
-        <v>3671.9999999999995</v>
+        <f>TubeLoading!J37</f>
+        <v>4000</v>
       </c>
       <c r="H11" s="50">
         <f>Summary!V26</f>
-        <v>73.175961303571839</v>
-      </c>
-      <c r="I11" s="113">
+        <v>72.512401822235191</v>
+      </c>
+      <c r="I11" s="112">
         <v>37</v>
-      </c>
-      <c r="J11" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="66">
-        <f>TubeLoading!F37</f>
-        <v>2393</v>
+        <f>TubeLoading!F38</f>
+        <v>4011</v>
       </c>
       <c r="B12" s="66" t="str">
-        <f>TubeLoading!A37</f>
-        <v>Tube I</v>
+        <f>TubeLoading!A38</f>
+        <v>Tube J</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12" s="67">
         <v>45035</v>
@@ -10222,28 +10035,28 @@
         <v>139</v>
       </c>
       <c r="G12" s="66">
-        <f>TubeLoading!J37</f>
+        <f>TubeLoading!J38</f>
         <v>4000</v>
       </c>
       <c r="H12" s="50">
         <f>Summary!Y26</f>
-        <v>72.512401822235191</v>
-      </c>
-      <c r="I12" s="112">
+        <v>78.415989570170623</v>
+      </c>
+      <c r="I12" s="113">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="66">
-        <f>TubeLoading!F38</f>
-        <v>4011</v>
+        <f>TubeLoading!F39</f>
+        <v>3961</v>
       </c>
       <c r="B13" s="66" t="str">
-        <f>TubeLoading!A38</f>
-        <v>Tube J</v>
+        <f>TubeLoading!A39</f>
+        <v>Tube K</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D13" s="67">
         <v>45035</v>
@@ -10252,28 +10065,28 @@
         <v>139</v>
       </c>
       <c r="G13" s="66">
-        <f>TubeLoading!J38</f>
+        <f>TubeLoading!J39</f>
         <v>4000</v>
       </c>
       <c r="H13" s="50">
         <f>Summary!AB26</f>
-        <v>78.415989570170623</v>
-      </c>
-      <c r="I13" s="113">
+        <v>74.520115167726274</v>
+      </c>
+      <c r="I13" s="112">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="66">
-        <f>TubeLoading!F39</f>
-        <v>3961</v>
+        <f>TubeLoading!F40</f>
+        <v>3971</v>
       </c>
       <c r="B14" s="66" t="str">
-        <f>TubeLoading!A39</f>
-        <v>Tube K</v>
+        <f>TubeLoading!A40</f>
+        <v>Tube L</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D14" s="67">
         <v>45035</v>
@@ -10282,50 +10095,20 @@
         <v>139</v>
       </c>
       <c r="G14" s="66">
-        <f>TubeLoading!J39</f>
-        <v>4000</v>
+        <f>TubeLoading!J40</f>
+        <v>3375</v>
       </c>
       <c r="H14" s="50">
         <f>Summary!AE26</f>
-        <v>74.520115167726274</v>
-      </c>
-      <c r="I14" s="112">
+        <v>81.144822920007144</v>
+      </c>
+      <c r="I14" s="113">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="66">
-        <f>TubeLoading!F40</f>
-        <v>3971</v>
-      </c>
-      <c r="B15" s="66" t="str">
-        <f>TubeLoading!A40</f>
-        <v>Tube L</v>
-      </c>
-      <c r="C15" s="66" t="s">
-        <v>201</v>
-      </c>
-      <c r="D15" s="67">
-        <v>45035</v>
-      </c>
-      <c r="E15">
-        <v>139</v>
-      </c>
-      <c r="G15" s="66">
-        <f>TubeLoading!J40</f>
-        <v>3375</v>
-      </c>
-      <c r="H15" s="50">
-        <f>Summary!AH26</f>
-        <v>81.144822920007144</v>
-      </c>
-      <c r="I15" s="113">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>207</v>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -11173,7 +10956,7 @@
         <v>116</v>
       </c>
       <c r="H11" s="120" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -13767,7 +13550,7 @@
         <v>1.6897130229999995</v>
       </c>
       <c r="G16" s="58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -13792,7 +13575,7 @@
         <v>1.6842492230000001</v>
       </c>
       <c r="G17" s="58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -13817,7 +13600,7 @@
         <v>1.6787854230000008</v>
       </c>
       <c r="G18" s="58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -13842,7 +13625,7 @@
         <v>1.6724200959999997</v>
       </c>
       <c r="G19" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -13867,7 +13650,7 @@
         <v>1.6451010960000012</v>
       </c>
       <c r="G20" s="58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -13892,7 +13675,7 @@
         <v>1.5347323360000011</v>
       </c>
       <c r="G21" s="58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -13917,7 +13700,7 @@
         <v>1.3249224160000015</v>
       </c>
       <c r="G22" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -13942,7 +13725,7 @@
         <v>1.0945412890000004</v>
       </c>
       <c r="G23" s="58" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -17127,7 +16910,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G16" s="58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -17148,7 +16931,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G17" s="58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -17169,7 +16952,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G18" s="58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -17190,7 +16973,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G19" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -17211,7 +16994,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G20" s="58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -17232,7 +17015,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G21" s="58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -17253,7 +17036,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G22" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -17274,7 +17057,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G23" s="58" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -18502,10 +18285,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA4E3B1-5772-4D1F-AF5A-033072A123CA}">
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AE86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH32" sqref="AH32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="12.45"/>
@@ -18520,9 +18303,9 @@
     <col min="12" max="16384" width="10.84375" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="12.9" thickTop="1">
+    <row r="1" spans="1:31" ht="12.9" thickTop="1">
       <c r="A1" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="100">
         <f>TubeLoading!F29</f>
@@ -18585,81 +18368,69 @@
         <v>2456-conc</v>
       </c>
       <c r="Q1" s="101">
-        <f>TubeLoading!F34</f>
-        <v>4009</v>
-      </c>
-      <c r="R1" s="102" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$34,"density")</f>
-        <v>4009-density</v>
-      </c>
-      <c r="S1" s="102" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$34,"conc")</f>
-        <v>4009-conc</v>
-      </c>
-      <c r="T1" s="101">
         <f>TubeLoading!F36</f>
         <v>2455</v>
       </c>
-      <c r="U1" s="102" t="str">
+      <c r="R1" s="102" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$36,"density")</f>
         <v>2455-density</v>
       </c>
-      <c r="V1" s="102" t="str">
+      <c r="S1" s="102" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$36,"conc")</f>
         <v>2455-conc</v>
       </c>
-      <c r="W1" s="101">
+      <c r="T1" s="101">
         <f>TubeLoading!F37</f>
         <v>2393</v>
       </c>
-      <c r="X1" s="102" t="str">
+      <c r="U1" s="102" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$37,"density")</f>
         <v>2393-density</v>
       </c>
-      <c r="Y1" s="102" t="str">
+      <c r="V1" s="102" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$37,"conc")</f>
         <v>2393-conc</v>
       </c>
-      <c r="Z1" s="101">
+      <c r="W1" s="101">
         <f>TubeLoading!F38</f>
         <v>4011</v>
       </c>
-      <c r="AA1" s="102" t="str">
+      <c r="X1" s="102" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$38,"density")</f>
         <v>4011-density</v>
       </c>
-      <c r="AB1" s="102" t="str">
+      <c r="Y1" s="102" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$38,"conc")</f>
         <v>4011-conc</v>
       </c>
-      <c r="AC1" s="101">
+      <c r="Z1" s="101">
         <f>TubeLoading!F39</f>
         <v>3961</v>
       </c>
-      <c r="AD1" s="102" t="str">
+      <c r="AA1" s="102" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$39,"density")</f>
         <v>3961-density</v>
       </c>
-      <c r="AE1" s="102" t="str">
+      <c r="AB1" s="102" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$39,"conc")</f>
         <v>3961-conc</v>
       </c>
-      <c r="AF1" s="101">
+      <c r="AC1" s="101">
         <f>TubeLoading!F40</f>
         <v>3971</v>
       </c>
-      <c r="AG1" s="102" t="str">
+      <c r="AD1" s="102" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$40,"density")</f>
         <v>3971-density</v>
       </c>
-      <c r="AH1" s="102" t="str">
+      <c r="AE1" s="102" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$40,"conc")</f>
         <v>3971-conc</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:31">
       <c r="A2" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="117" t="s">
         <v>169</v>
@@ -18692,7 +18463,7 @@
       <c r="R2" s="115"/>
       <c r="S2" s="116"/>
       <c r="T2" s="114" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="U2" s="115"/>
       <c r="V2" s="116"/>
@@ -18707,121 +18478,107 @@
       <c r="AA2" s="115"/>
       <c r="AB2" s="116"/>
       <c r="AC2" s="114" t="s">
-        <v>204</v>
+        <v>8</v>
       </c>
       <c r="AD2" s="115"/>
       <c r="AE2" s="116"/>
-      <c r="AF2" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG2" s="115"/>
-      <c r="AH2" s="116"/>
-    </row>
-    <row r="3" spans="1:34">
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="62" t="s">
         <v>168</v>
       </c>
       <c r="B3" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="64" t="s">
         <v>187</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>188</v>
       </c>
       <c r="D3" s="65" t="s">
         <v>173</v>
       </c>
       <c r="E3" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="64" t="s">
         <v>187</v>
-      </c>
-      <c r="F3" s="64" t="s">
-        <v>188</v>
       </c>
       <c r="G3" s="65" t="s">
         <v>173</v>
       </c>
       <c r="H3" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="64" t="s">
         <v>187</v>
-      </c>
-      <c r="I3" s="64" t="s">
-        <v>188</v>
       </c>
       <c r="J3" s="65" t="s">
         <v>173</v>
       </c>
       <c r="K3" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="L3" s="64" t="s">
         <v>187</v>
-      </c>
-      <c r="L3" s="64" t="s">
-        <v>188</v>
       </c>
       <c r="M3" s="65" t="s">
         <v>173</v>
       </c>
       <c r="N3" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="O3" s="85" t="s">
         <v>187</v>
-      </c>
-      <c r="O3" s="85" t="s">
-        <v>188</v>
       </c>
       <c r="P3" s="86" t="s">
         <v>173</v>
       </c>
       <c r="Q3" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="R3" s="85" t="s">
         <v>187</v>
-      </c>
-      <c r="R3" s="85" t="s">
-        <v>188</v>
       </c>
       <c r="S3" s="86" t="s">
         <v>173</v>
       </c>
       <c r="T3" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="U3" s="85" t="s">
         <v>187</v>
-      </c>
-      <c r="U3" s="85" t="s">
-        <v>188</v>
       </c>
       <c r="V3" s="86" t="s">
         <v>173</v>
       </c>
       <c r="W3" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="X3" s="85" t="s">
         <v>187</v>
-      </c>
-      <c r="X3" s="85" t="s">
-        <v>188</v>
       </c>
       <c r="Y3" s="86" t="s">
         <v>173</v>
       </c>
       <c r="Z3" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA3" s="85" t="s">
         <v>187</v>
-      </c>
-      <c r="AA3" s="85" t="s">
-        <v>188</v>
       </c>
       <c r="AB3" s="86" t="s">
         <v>173</v>
       </c>
       <c r="AC3" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD3" s="85" t="s">
         <v>187</v>
-      </c>
-      <c r="AD3" s="85" t="s">
-        <v>188</v>
       </c>
       <c r="AE3" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="AF3" s="84" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG3" s="85" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH3" s="86" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" s="56">
         <v>1</v>
       </c>
@@ -18881,73 +18638,62 @@
         <v>9.1486610530967984E-3</v>
       </c>
       <c r="Q4" s="69" t="str">
-        <f>'Tube F'!G2</f>
-        <v>G3</v>
-      </c>
-      <c r="R4" s="70">
-        <f>'Tube F'!F2</f>
-        <v>1.7616166310000008</v>
-      </c>
-      <c r="S4" s="71">
-        <v>-2.1805581529606165E-2</v>
-      </c>
-      <c r="T4" s="69" t="str">
         <f>'Tube H'!G2</f>
         <v>D6</v>
       </c>
-      <c r="U4" s="70">
+      <c r="R4" s="70">
         <f>'Tube H'!F2</f>
         <v>1.7632830899999998</v>
       </c>
-      <c r="V4" s="71">
+      <c r="S4" s="71">
         <v>2.905498938603639E-2</v>
       </c>
-      <c r="W4" s="69" t="str">
+      <c r="T4" s="69" t="str">
         <f>'Tube I'!G2</f>
         <v>A1</v>
       </c>
-      <c r="X4" s="70">
+      <c r="U4" s="70">
         <f>'Tube I'!F2</f>
         <v>1.7686102950000002</v>
       </c>
-      <c r="Y4" s="71">
+      <c r="V4" s="71">
         <v>-1.5875311812738113E-2</v>
       </c>
-      <c r="Z4" s="69" t="str">
+      <c r="W4" s="69" t="str">
         <f>'Tube J'!G2</f>
         <v>G3</v>
       </c>
-      <c r="AA4" s="70">
+      <c r="X4" s="70">
         <f>'Tube J'!F2</f>
         <v>1.7632011330000008</v>
       </c>
-      <c r="AB4" s="71">
+      <c r="Y4" s="71">
         <v>-2.1138511569432288E-2</v>
       </c>
-      <c r="AC4" s="69" t="str">
+      <c r="Z4" s="69" t="str">
         <f>'Tube K'!G2</f>
         <v>D6</v>
       </c>
-      <c r="AD4" s="70">
+      <c r="AA4" s="70">
         <f>'Tube K'!F2</f>
         <v>1.7639660650000017</v>
       </c>
-      <c r="AE4" s="71">
+      <c r="AB4" s="71">
         <v>-1.2039742015765744E-2</v>
       </c>
-      <c r="AF4" s="69" t="str">
+      <c r="AC4" s="69" t="str">
         <f>'Tube L'!G2</f>
         <v>C9</v>
       </c>
-      <c r="AG4" s="70">
+      <c r="AD4" s="70">
         <f>'Tube L'!F2</f>
         <v>1.7570816770000004</v>
       </c>
-      <c r="AH4" s="71">
+      <c r="AE4" s="71">
         <v>-1.6001992675347024E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:31">
       <c r="A5" s="56">
         <v>2</v>
       </c>
@@ -19007,73 +18753,62 @@
         <v>7.5734098152745927E-2</v>
       </c>
       <c r="Q5" s="72" t="str">
-        <f>'Tube F'!G3</f>
-        <v>H3</v>
-      </c>
-      <c r="R5" s="73">
-        <f>'Tube F'!F3</f>
-        <v>1.7638021510000002</v>
-      </c>
-      <c r="S5" s="74">
-        <v>-5.1310444323855687E-3</v>
-      </c>
-      <c r="T5" s="72" t="str">
         <f>'Tube H'!G3</f>
         <v>C6</v>
       </c>
-      <c r="U5" s="73">
+      <c r="R5" s="73">
         <f>'Tube H'!F3</f>
         <v>1.7632830899999998</v>
       </c>
-      <c r="V5" s="74">
+      <c r="S5" s="74">
         <v>5.9589634866276997E-2</v>
       </c>
-      <c r="W5" s="72" t="str">
+      <c r="T5" s="72" t="str">
         <f>'Tube I'!G3</f>
         <v>B1</v>
       </c>
-      <c r="X5" s="73">
+      <c r="U5" s="73">
         <f>'Tube I'!F3</f>
         <v>1.7644304880000004</v>
       </c>
-      <c r="Y5" s="74">
+      <c r="V5" s="74">
         <v>-5.5322348449455038E-3</v>
       </c>
-      <c r="Z5" s="72" t="str">
+      <c r="W5" s="72" t="str">
         <f>'Tube J'!G3</f>
         <v>H3</v>
       </c>
-      <c r="AA5" s="73">
+      <c r="X5" s="73">
         <f>'Tube J'!F3</f>
         <v>1.7653866530000002</v>
       </c>
-      <c r="AB5" s="74">
+      <c r="Y5" s="74">
         <v>-2.0569612016964511E-2</v>
       </c>
-      <c r="AC5" s="72" t="str">
+      <c r="Z5" s="72" t="str">
         <f>'Tube K'!G3</f>
         <v>C6</v>
       </c>
-      <c r="AD5" s="73">
+      <c r="AA5" s="73">
         <f>'Tube K'!F3</f>
         <v>1.7628733050000012</v>
       </c>
-      <c r="AE5" s="74">
+      <c r="AB5" s="74">
         <v>-1.4778440396800839E-2</v>
       </c>
-      <c r="AF5" s="72" t="str">
+      <c r="AC5" s="72" t="str">
         <f>'Tube L'!G3</f>
         <v>D9</v>
       </c>
-      <c r="AG5" s="73">
+      <c r="AD5" s="73">
         <f>'Tube L'!F3</f>
         <v>1.7605511899999993</v>
       </c>
-      <c r="AH5" s="74">
+      <c r="AE5" s="74">
         <v>-1.6756168791895228E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:31">
       <c r="A6" s="56">
         <v>3</v>
       </c>
@@ -19133,73 +18868,62 @@
         <v>0.19575643162256351</v>
       </c>
       <c r="Q6" s="72" t="str">
-        <f>'Tube F'!G4</f>
-        <v>H4</v>
-      </c>
-      <c r="R6" s="73">
-        <f>'Tube F'!F4</f>
-        <v>1.7607151040000009</v>
-      </c>
-      <c r="S6" s="74">
-        <v>6.098054782064518E-2</v>
-      </c>
-      <c r="T6" s="72" t="str">
         <f>'Tube H'!G4</f>
         <v>B6</v>
       </c>
-      <c r="U6" s="73">
+      <c r="R6" s="73">
         <f>'Tube H'!F4</f>
         <v>1.7589120500000011</v>
       </c>
-      <c r="V6" s="74">
+      <c r="S6" s="74">
         <v>0.23347718432783324</v>
       </c>
-      <c r="W6" s="72" t="str">
+      <c r="T6" s="72" t="str">
         <f>'Tube I'!G4</f>
         <v>C1</v>
       </c>
-      <c r="X6" s="73">
+      <c r="U6" s="73">
         <f>'Tube I'!F4</f>
         <v>1.7611522080000004</v>
       </c>
-      <c r="Y6" s="74">
+      <c r="V6" s="74">
         <v>-9.3348868589453998E-3</v>
       </c>
-      <c r="Z6" s="72" t="str">
+      <c r="W6" s="72" t="str">
         <f>'Tube J'!G4</f>
         <v>H4</v>
       </c>
-      <c r="AA6" s="73">
+      <c r="X6" s="73">
         <f>'Tube J'!F4</f>
         <v>1.762108373000002</v>
       </c>
-      <c r="AB6" s="74">
+      <c r="Y6" s="74">
         <v>-1.6625030761235889E-2</v>
       </c>
-      <c r="AC6" s="72" t="str">
+      <c r="Z6" s="72" t="str">
         <f>'Tube K'!G4</f>
         <v>B6</v>
       </c>
-      <c r="AD6" s="73">
+      <c r="AA6" s="73">
         <f>'Tube K'!F4</f>
         <v>1.7585022649999988</v>
       </c>
-      <c r="AE6" s="74">
+      <c r="AB6" s="74">
         <v>-7.3877096843382936E-3</v>
       </c>
-      <c r="AF6" s="72" t="str">
+      <c r="AC6" s="72" t="str">
         <f>'Tube L'!G4</f>
         <v>E9</v>
       </c>
-      <c r="AG6" s="73">
+      <c r="AD6" s="73">
         <f>'Tube L'!F4</f>
         <v>1.7572729099999993</v>
       </c>
-      <c r="AH6" s="74">
+      <c r="AE6" s="74">
         <v>-1.4184478959075921E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:31">
       <c r="A7" s="56">
         <v>4</v>
       </c>
@@ -19259,73 +18983,62 @@
         <v>0.42104079431953023</v>
       </c>
       <c r="Q7" s="72" t="str">
-        <f>'Tube F'!G5</f>
-        <v>G4</v>
-      </c>
-      <c r="R7" s="73">
-        <f>'Tube F'!F5</f>
-        <v>1.7563440640000021</v>
-      </c>
-      <c r="S7" s="74">
-        <v>0.10404186040348253</v>
-      </c>
-      <c r="T7" s="72" t="str">
         <f>'Tube H'!G5</f>
         <v>A6</v>
       </c>
-      <c r="U7" s="73">
+      <c r="R7" s="73">
         <f>'Tube H'!F5</f>
         <v>1.7534482500000017</v>
       </c>
-      <c r="V7" s="74">
+      <c r="S7" s="74">
         <v>0.45256729996706219</v>
       </c>
-      <c r="W7" s="72" t="str">
+      <c r="T7" s="72" t="str">
         <f>'Tube I'!G5</f>
         <v>D1</v>
       </c>
-      <c r="X7" s="73">
+      <c r="U7" s="73">
         <f>'Tube I'!F5</f>
         <v>1.7556884079999993</v>
       </c>
-      <c r="Y7" s="74">
+      <c r="V7" s="74">
         <v>2.5323160189743597E-2</v>
       </c>
-      <c r="Z7" s="72" t="str">
+      <c r="W7" s="72" t="str">
         <f>'Tube J'!G5</f>
         <v>G4</v>
       </c>
-      <c r="AA7" s="73">
+      <c r="X7" s="73">
         <f>'Tube J'!F5</f>
         <v>1.7577373329999997</v>
       </c>
-      <c r="AB7" s="74">
+      <c r="Y7" s="74">
         <v>8.1841338813130771E-2</v>
       </c>
-      <c r="AC7" s="72" t="str">
+      <c r="Z7" s="72" t="str">
         <f>'Tube K'!G5</f>
         <v>A6</v>
       </c>
-      <c r="AD7" s="73">
+      <c r="AA7" s="73">
         <f>'Tube K'!F5</f>
         <v>1.7543224580000008</v>
       </c>
-      <c r="AE7" s="74">
+      <c r="AB7" s="74">
         <v>1.4903457836316088E-2</v>
       </c>
-      <c r="AF7" s="72" t="str">
+      <c r="AC7" s="72" t="str">
         <f>'Tube L'!G5</f>
         <v>F9</v>
       </c>
-      <c r="AG7" s="73">
+      <c r="AD7" s="73">
         <f>'Tube L'!F5</f>
         <v>1.7529018700000005</v>
       </c>
-      <c r="AH7" s="74">
+      <c r="AE7" s="74">
         <v>0.10096181172309172</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:31">
       <c r="A8" s="56">
         <v>5</v>
       </c>
@@ -19385,73 +19098,62 @@
         <v>0.69501254970200066</v>
       </c>
       <c r="Q8" s="72" t="str">
-        <f>'Tube F'!G6</f>
-        <v>F4</v>
-      </c>
-      <c r="R8" s="73">
-        <f>'Tube F'!F6</f>
-        <v>1.7497875040000022</v>
-      </c>
-      <c r="S8" s="74">
-        <v>0.38045778617604692</v>
-      </c>
-      <c r="T8" s="72" t="str">
         <f>'Tube H'!G6</f>
         <v>A7</v>
       </c>
-      <c r="U8" s="73">
+      <c r="R8" s="73">
         <f>'Tube H'!F6</f>
         <v>1.7490772100000029</v>
       </c>
-      <c r="V8" s="74">
+      <c r="S8" s="74">
         <v>0.74176775938936368</v>
       </c>
-      <c r="W8" s="72" t="str">
+      <c r="T8" s="72" t="str">
         <f>'Tube I'!G6</f>
         <v>E1</v>
       </c>
-      <c r="X8" s="73">
+      <c r="U8" s="73">
         <f>'Tube I'!F6</f>
         <v>1.7491318479999993</v>
       </c>
-      <c r="Y8" s="74">
+      <c r="V8" s="74">
         <v>0.24234675165253658</v>
       </c>
-      <c r="Z8" s="72" t="str">
+      <c r="W8" s="72" t="str">
         <f>'Tube J'!G6</f>
         <v>F4</v>
       </c>
-      <c r="AA8" s="73">
+      <c r="X8" s="73">
         <f>'Tube J'!F6</f>
         <v>1.7524647659999992</v>
       </c>
-      <c r="AB8" s="74">
+      <c r="Y8" s="74">
         <v>0.5264668276115636</v>
       </c>
-      <c r="AC8" s="72" t="str">
+      <c r="Z8" s="72" t="str">
         <f>'Tube K'!G6</f>
         <v>A7</v>
       </c>
-      <c r="AD8" s="73">
+      <c r="AA8" s="73">
         <f>'Tube K'!F6</f>
         <v>1.7488586580000014</v>
       </c>
-      <c r="AE8" s="74">
+      <c r="AB8" s="74">
         <v>0.22768552147128809</v>
       </c>
-      <c r="AF8" s="72" t="str">
+      <c r="AC8" s="72" t="str">
         <f>'Tube L'!G6</f>
         <v>G9</v>
       </c>
-      <c r="AG8" s="73">
+      <c r="AD8" s="73">
         <f>'Tube L'!F6</f>
         <v>1.7485308300000018</v>
       </c>
-      <c r="AH8" s="74">
+      <c r="AE8" s="74">
         <v>0.65854998372586859</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:31">
       <c r="A9" s="56">
         <v>6</v>
       </c>
@@ -19511,73 +19213,62 @@
         <v>1.6645075768239135</v>
       </c>
       <c r="Q9" s="72" t="str">
-        <f>'Tube F'!G7</f>
-        <v>E4</v>
-      </c>
-      <c r="R9" s="73">
-        <f>'Tube F'!F7</f>
-        <v>1.7443237039999993</v>
-      </c>
-      <c r="S9" s="74">
-        <v>0.86462855159622498</v>
-      </c>
-      <c r="T9" s="72" t="str">
         <f>'Tube H'!G7</f>
         <v>B7</v>
       </c>
-      <c r="U9" s="73">
+      <c r="R9" s="73">
         <f>'Tube H'!F7</f>
         <v>1.74361341</v>
       </c>
-      <c r="V9" s="75">
+      <c r="S9" s="75">
         <v>1.2990035108650722</v>
       </c>
-      <c r="W9" s="72" t="str">
+      <c r="T9" s="72" t="str">
         <f>'Tube I'!G7</f>
         <v>F1</v>
       </c>
-      <c r="X9" s="73">
+      <c r="U9" s="73">
         <f>'Tube I'!F7</f>
         <v>1.7425752880000012</v>
       </c>
-      <c r="Y9" s="74">
+      <c r="V9" s="74">
         <v>0.81356441484717801</v>
       </c>
-      <c r="Z9" s="72" t="str">
+      <c r="W9" s="72" t="str">
         <f>'Tube J'!G7</f>
         <v>E4</v>
       </c>
-      <c r="AA9" s="73">
+      <c r="X9" s="73">
         <f>'Tube J'!F7</f>
         <v>1.7448154460000005</v>
       </c>
-      <c r="AB9" s="74">
+      <c r="Y9" s="74">
         <v>0.81965587591547173</v>
       </c>
-      <c r="AC9" s="72" t="str">
+      <c r="Z9" s="72" t="str">
         <f>'Tube K'!G7</f>
         <v>B7</v>
       </c>
-      <c r="AD9" s="73">
+      <c r="AA9" s="73">
         <f>'Tube K'!F7</f>
         <v>1.7424933310000021</v>
       </c>
-      <c r="AE9" s="74">
+      <c r="AB9" s="74">
         <v>0.63657049547642564</v>
       </c>
-      <c r="AF9" s="72" t="str">
+      <c r="AC9" s="72" t="str">
         <f>'Tube L'!G7</f>
         <v>H9</v>
       </c>
-      <c r="AG9" s="73">
+      <c r="AD9" s="73">
         <f>'Tube L'!F7</f>
         <v>1.7419742700000018</v>
       </c>
-      <c r="AH9" s="74">
+      <c r="AE9" s="74">
         <v>1.6483345446761193</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:31">
       <c r="A10" s="56">
         <v>7</v>
       </c>
@@ -19637,73 +19328,62 @@
         <v>2.5030805973831645</v>
       </c>
       <c r="Q10" s="72" t="str">
-        <f>'Tube F'!G8</f>
-        <v>D4</v>
-      </c>
-      <c r="R10" s="73">
-        <f>'Tube F'!F8</f>
-        <v>1.7366743840000005</v>
-      </c>
-      <c r="S10" s="74">
-        <v>2.134539881499864</v>
-      </c>
-      <c r="T10" s="72" t="str">
         <f>'Tube H'!G8</f>
         <v>C7</v>
       </c>
-      <c r="U10" s="73">
+      <c r="R10" s="73">
         <f>'Tube H'!F8</f>
         <v>1.7370568500000019</v>
       </c>
-      <c r="V10" s="75">
+      <c r="S10" s="75">
         <v>2.5623640438789459</v>
       </c>
-      <c r="W10" s="72" t="str">
+      <c r="T10" s="72" t="str">
         <f>'Tube I'!G8</f>
         <v>G1</v>
       </c>
-      <c r="X10" s="73">
+      <c r="U10" s="73">
         <f>'Tube I'!F8</f>
         <v>1.7360187279999995</v>
       </c>
-      <c r="Y10" s="74">
+      <c r="V10" s="74">
         <v>2.1945181231327218</v>
       </c>
-      <c r="Z10" s="72" t="str">
+      <c r="W10" s="72" t="str">
         <f>'Tube J'!G8</f>
         <v>D4</v>
       </c>
-      <c r="AA10" s="73">
+      <c r="X10" s="73">
         <f>'Tube J'!F8</f>
         <v>1.7382588859999988</v>
       </c>
-      <c r="AB10" s="74">
+      <c r="Y10" s="74">
         <v>1.6499994258529203</v>
       </c>
-      <c r="AC10" s="72" t="str">
+      <c r="Z10" s="72" t="str">
         <f>'Tube K'!G8</f>
         <v>C7</v>
       </c>
-      <c r="AD10" s="73">
+      <c r="AA10" s="73">
         <f>'Tube K'!F8</f>
         <v>1.7359367710000004</v>
       </c>
-      <c r="AE10" s="74">
+      <c r="AB10" s="74">
         <v>1.2062713156944043</v>
       </c>
-      <c r="AF10" s="72" t="str">
+      <c r="AC10" s="72" t="str">
         <f>'Tube L'!G8</f>
         <v>H10</v>
       </c>
-      <c r="AG10" s="73">
+      <c r="AD10" s="73">
         <f>'Tube L'!F8</f>
         <v>1.7354177100000001</v>
       </c>
-      <c r="AH10" s="75">
+      <c r="AE10" s="75">
         <v>2.3719970920285056</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:31">
       <c r="A11" s="56">
         <v>8</v>
       </c>
@@ -19763,73 +19443,62 @@
         <v>4.0639748532855622</v>
       </c>
       <c r="Q11" s="72" t="str">
-        <f>'Tube F'!G9</f>
-        <v>C4</v>
-      </c>
-      <c r="R11" s="73">
-        <f>'Tube F'!F9</f>
-        <v>1.7312105840000012</v>
-      </c>
-      <c r="S11" s="74">
-        <v>4.93324653975675</v>
-      </c>
-      <c r="T11" s="72" t="str">
         <f>'Tube H'!G9</f>
         <v>D7</v>
       </c>
-      <c r="U11" s="73">
+      <c r="R11" s="73">
         <f>'Tube H'!F9</f>
         <v>1.7305002900000019</v>
       </c>
-      <c r="V11" s="75">
+      <c r="S11" s="75">
         <v>6.0680057755967374</v>
       </c>
-      <c r="W11" s="72" t="str">
+      <c r="T11" s="72" t="str">
         <f>'Tube I'!G9</f>
         <v>H1</v>
       </c>
-      <c r="X11" s="73">
+      <c r="U11" s="73">
         <f>'Tube I'!F9</f>
         <v>1.7296534010000002</v>
       </c>
-      <c r="Y11" s="74">
+      <c r="V11" s="74">
         <v>5.3439857912842159</v>
       </c>
-      <c r="Z11" s="72" t="str">
+      <c r="W11" s="72" t="str">
         <f>'Tube J'!G9</f>
         <v>C4</v>
       </c>
-      <c r="AA11" s="73">
+      <c r="X11" s="73">
         <f>'Tube J'!F9</f>
         <v>1.7317023260000006</v>
       </c>
-      <c r="AB11" s="74">
+      <c r="Y11" s="74">
         <v>4.372859317260688</v>
       </c>
-      <c r="AC11" s="72" t="str">
+      <c r="Z11" s="72" t="str">
         <f>'Tube K'!G9</f>
         <v>D7</v>
       </c>
-      <c r="AD11" s="73">
+      <c r="AA11" s="73">
         <f>'Tube K'!F9</f>
         <v>1.7293802110000005</v>
       </c>
-      <c r="AE11" s="74">
+      <c r="AB11" s="74">
         <v>4.1957328179308542</v>
       </c>
-      <c r="AF11" s="72" t="str">
+      <c r="AC11" s="72" t="str">
         <f>'Tube L'!G9</f>
         <v>G10</v>
       </c>
-      <c r="AG11" s="73">
+      <c r="AD11" s="73">
         <f>'Tube L'!F9</f>
         <v>1.7299539100000008</v>
       </c>
-      <c r="AH11" s="75">
+      <c r="AE11" s="75">
         <v>5.423683657864423</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:31">
       <c r="A12" s="56">
         <v>9</v>
       </c>
@@ -19889,73 +19558,62 @@
         <v>9.9990495765623759</v>
       </c>
       <c r="Q12" s="72" t="str">
-        <f>'Tube F'!G10</f>
-        <v>B4</v>
-      </c>
-      <c r="R12" s="73">
-        <f>'Tube F'!F10</f>
-        <v>1.7257467840000018</v>
-      </c>
-      <c r="S12" s="74">
-        <v>9.9570500992424602</v>
-      </c>
-      <c r="T12" s="72" t="str">
         <f>'Tube H'!G10</f>
         <v>E7</v>
       </c>
-      <c r="U12" s="73">
+      <c r="R12" s="73">
         <f>'Tube H'!F10</f>
         <v>1.7250364900000026</v>
       </c>
-      <c r="V12" s="75">
+      <c r="S12" s="75">
         <v>14.782933207660124</v>
       </c>
-      <c r="W12" s="72" t="str">
+      <c r="T12" s="72" t="str">
         <f>'Tube I'!G10</f>
         <v>H2</v>
       </c>
-      <c r="X12" s="73">
+      <c r="U12" s="73">
         <f>'Tube I'!F10</f>
         <v>1.7252823609999997</v>
       </c>
-      <c r="Y12" s="74">
+      <c r="V12" s="74">
         <v>14.14744880031283</v>
       </c>
-      <c r="Z12" s="72" t="str">
+      <c r="W12" s="72" t="str">
         <f>'Tube J'!G10</f>
         <v>B4</v>
       </c>
-      <c r="AA12" s="73">
+      <c r="X12" s="73">
         <f>'Tube J'!F10</f>
         <v>1.7262385260000013</v>
       </c>
-      <c r="AB12" s="74">
+      <c r="Y12" s="74">
         <v>12.542814974705843</v>
       </c>
-      <c r="AC12" s="72" t="str">
+      <c r="Z12" s="72" t="str">
         <f>'Tube K'!G10</f>
         <v>E7</v>
       </c>
-      <c r="AD12" s="73">
+      <c r="AA12" s="73">
         <f>'Tube K'!F10</f>
         <v>1.7239164110000011</v>
       </c>
-      <c r="AE12" s="74">
+      <c r="AB12" s="74">
         <v>14.58436026808856</v>
       </c>
-      <c r="AF12" s="72" t="str">
+      <c r="AC12" s="72" t="str">
         <f>'Tube L'!G10</f>
         <v>F10</v>
       </c>
-      <c r="AG12" s="73">
+      <c r="AD12" s="73">
         <f>'Tube L'!F10</f>
         <v>1.7244901100000014</v>
       </c>
-      <c r="AH12" s="75">
+      <c r="AE12" s="75">
         <v>12.539453417711259</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:31">
       <c r="A13" s="56">
         <v>10</v>
       </c>
@@ -20015,73 +19673,62 @@
         <v>9.0778356322447546</v>
       </c>
       <c r="Q13" s="72" t="str">
-        <f>'Tube F'!G11</f>
-        <v>A4</v>
-      </c>
-      <c r="R13" s="73">
-        <f>'Tube F'!F11</f>
-        <v>1.7204742169999996</v>
-      </c>
-      <c r="S13" s="74">
-        <v>10.516503845024912</v>
-      </c>
-      <c r="T13" s="72" t="str">
         <f>'Tube H'!G11</f>
         <v>F7</v>
       </c>
-      <c r="U13" s="73">
+      <c r="R13" s="73">
         <f>'Tube H'!F11</f>
         <v>1.7164856430000004</v>
       </c>
-      <c r="V13" s="75">
+      <c r="S13" s="75">
         <v>14.790738263537859</v>
       </c>
-      <c r="W13" s="72" t="str">
+      <c r="T13" s="72" t="str">
         <f>'Tube I'!G11</f>
         <v>G2</v>
       </c>
-      <c r="X13" s="73">
+      <c r="U13" s="73">
         <f>'Tube I'!F11</f>
         <v>1.7187258010000015</v>
       </c>
-      <c r="Y13" s="74">
+      <c r="V13" s="74">
         <v>19.081619651588188</v>
       </c>
-      <c r="Z13" s="72" t="str">
+      <c r="W13" s="72" t="str">
         <f>'Tube J'!G11</f>
         <v>A4</v>
       </c>
-      <c r="AA13" s="73">
+      <c r="X13" s="73">
         <f>'Tube J'!F11</f>
         <v>1.7209659590000008</v>
       </c>
-      <c r="AB13" s="74">
+      <c r="Y13" s="74">
         <v>19.799304893024427</v>
       </c>
-      <c r="AC13" s="72" t="str">
+      <c r="Z13" s="72" t="str">
         <f>'Tube K'!G11</f>
         <v>F7</v>
       </c>
-      <c r="AD13" s="73">
+      <c r="AA13" s="73">
         <f>'Tube K'!F11</f>
         <v>1.7173598509999994</v>
       </c>
-      <c r="AE13" s="74">
+      <c r="AB13" s="74">
         <v>18.540744367734138</v>
       </c>
-      <c r="AF13" s="72" t="str">
+      <c r="AC13" s="72" t="str">
         <f>'Tube L'!G11</f>
         <v>E10</v>
       </c>
-      <c r="AG13" s="73">
+      <c r="AD13" s="73">
         <f>'Tube L'!F11</f>
         <v>1.7181247830000004</v>
       </c>
-      <c r="AH13" s="74">
+      <c r="AE13" s="74">
         <v>16.079082230325614</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:31">
       <c r="A14" s="56">
         <v>11</v>
       </c>
@@ -20141,73 +19788,62 @@
         <v>5.3632256901564537</v>
       </c>
       <c r="Q14" s="72" t="str">
-        <f>'Tube F'!G12</f>
-        <v>A5</v>
-      </c>
-      <c r="R14" s="73">
-        <f>'Tube F'!F12</f>
-        <v>1.7150104170000002</v>
-      </c>
-      <c r="S14" s="74">
-        <v>6.4614989170028219</v>
-      </c>
-      <c r="T14" s="72" t="str">
         <f>'Tube H'!G12</f>
         <v>G7</v>
       </c>
-      <c r="U14" s="73">
+      <c r="R14" s="73">
         <f>'Tube H'!F12</f>
         <v>1.717578403000001</v>
       </c>
-      <c r="V14" s="75">
+      <c r="S14" s="75">
         <v>12.548252685975291</v>
       </c>
-      <c r="W14" s="72" t="str">
+      <c r="T14" s="72" t="str">
         <f>'Tube I'!G12</f>
         <v>F2</v>
       </c>
-      <c r="X14" s="73">
+      <c r="U14" s="73">
         <f>'Tube I'!F12</f>
         <v>1.7132620009999986</v>
       </c>
-      <c r="Y14" s="74">
+      <c r="V14" s="74">
         <v>15.588261263244725</v>
       </c>
-      <c r="Z14" s="72" t="str">
+      <c r="W14" s="72" t="str">
         <f>'Tube J'!G12</f>
         <v>A5</v>
       </c>
-      <c r="AA14" s="73">
+      <c r="X14" s="73">
         <f>'Tube J'!F12</f>
         <v>1.7165949189999985</v>
       </c>
-      <c r="AB14" s="74">
+      <c r="Y14" s="74">
         <v>17.741614572561325</v>
       </c>
-      <c r="AC14" s="72" t="str">
+      <c r="Z14" s="72" t="str">
         <f>'Tube K'!G12</f>
         <v>G7</v>
       </c>
-      <c r="AD14" s="73">
+      <c r="AA14" s="73">
         <f>'Tube K'!F12</f>
         <v>1.7118960510000001</v>
       </c>
-      <c r="AE14" s="74">
+      <c r="AB14" s="74">
         <v>17.569838920457993</v>
       </c>
-      <c r="AF14" s="72" t="str">
+      <c r="AC14" s="72" t="str">
         <f>'Tube L'!G12</f>
         <v>D10</v>
       </c>
-      <c r="AG14" s="73">
+      <c r="AD14" s="73">
         <f>'Tube L'!F12</f>
         <v>1.712660983000001</v>
       </c>
-      <c r="AH14" s="76">
+      <c r="AE14" s="76">
         <v>13.996846004044679</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:31">
       <c r="A15" s="56">
         <v>12</v>
       </c>
@@ -20267,73 +19903,62 @@
         <v>3.6090518836462651</v>
       </c>
       <c r="Q15" s="72" t="str">
-        <f>'Tube F'!G13</f>
-        <v>B5</v>
-      </c>
-      <c r="R15" s="73">
-        <f>'Tube F'!F13</f>
-        <v>1.7084538570000021</v>
-      </c>
-      <c r="S15" s="74">
-        <v>4.0075555823412463</v>
-      </c>
-      <c r="T15" s="72" t="str">
         <f>'Tube H'!G13</f>
         <v>H7</v>
       </c>
-      <c r="U15" s="73">
+      <c r="R15" s="73">
         <f>'Tube H'!F13</f>
         <v>1.7077435630000011</v>
       </c>
-      <c r="V15" s="74">
+      <c r="S15" s="74">
         <v>6.9750297303335103</v>
       </c>
-      <c r="W15" s="72" t="str">
+      <c r="T15" s="72" t="str">
         <f>'Tube I'!G13</f>
         <v>E2</v>
       </c>
-      <c r="X15" s="73">
+      <c r="U15" s="73">
         <f>'Tube I'!F13</f>
         <v>1.7068966739999993</v>
       </c>
-      <c r="Y15" s="74">
+      <c r="V15" s="74">
         <v>7.5661974843719406</v>
       </c>
-      <c r="Z15" s="72" t="str">
+      <c r="W15" s="72" t="str">
         <f>'Tube J'!G13</f>
         <v>B5</v>
       </c>
-      <c r="AA15" s="73">
+      <c r="X15" s="73">
         <f>'Tube J'!F13</f>
         <v>1.7100383590000003</v>
       </c>
-      <c r="AB15" s="74">
+      <c r="Y15" s="74">
         <v>11.367935362644856</v>
       </c>
-      <c r="AC15" s="72" t="str">
+      <c r="Z15" s="72" t="str">
         <f>'Tube K'!G13</f>
         <v>H7</v>
       </c>
-      <c r="AD15" s="73">
+      <c r="AA15" s="73">
         <f>'Tube K'!F13</f>
         <v>1.7066234840000014</v>
       </c>
-      <c r="AE15" s="74">
+      <c r="AB15" s="74">
         <v>9.2749288668392822</v>
       </c>
-      <c r="AF15" s="72" t="str">
+      <c r="AC15" s="72" t="str">
         <f>'Tube L'!G13</f>
         <v>C10</v>
       </c>
-      <c r="AG15" s="73">
+      <c r="AD15" s="73">
         <f>'Tube L'!F13</f>
         <v>1.7061044230000011</v>
       </c>
-      <c r="AH15" s="76">
+      <c r="AE15" s="76">
         <v>8.149946565137169</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:31">
       <c r="A16" s="56">
         <v>13</v>
       </c>
@@ -20393,73 +20018,62 @@
         <v>1.5312811209354793</v>
       </c>
       <c r="Q16" s="72" t="str">
-        <f>'Tube F'!G14</f>
-        <v>C5</v>
-      </c>
-      <c r="R16" s="73">
-        <f>'Tube F'!F14</f>
-        <v>1.7029900570000027</v>
-      </c>
-      <c r="S16" s="74">
-        <v>1.6526663992140147</v>
-      </c>
-      <c r="T16" s="72" t="str">
         <f>'Tube H'!G14</f>
         <v>H8</v>
       </c>
-      <c r="U16" s="73">
+      <c r="R16" s="73">
         <f>'Tube H'!F14</f>
         <v>1.7033725230000023</v>
       </c>
-      <c r="V16" s="74">
+      <c r="S16" s="74">
         <v>2.861185936266931</v>
       </c>
-      <c r="W16" s="72" t="str">
+      <c r="T16" s="72" t="str">
         <f>'Tube I'!G14</f>
         <v>D2</v>
       </c>
-      <c r="X16" s="73">
+      <c r="U16" s="73">
         <f>'Tube I'!F14</f>
         <v>1.701432874</v>
       </c>
-      <c r="Y16" s="74">
+      <c r="V16" s="74">
         <v>3.2804227269597472</v>
       </c>
-      <c r="Z16" s="72" t="str">
+      <c r="W16" s="72" t="str">
         <f>'Tube J'!G14</f>
         <v>C5</v>
       </c>
-      <c r="AA16" s="73">
+      <c r="X16" s="73">
         <f>'Tube J'!F14</f>
         <v>1.7034817990000004</v>
       </c>
-      <c r="AB16" s="74">
+      <c r="Y16" s="74">
         <v>4.6115540666449668</v>
       </c>
-      <c r="AC16" s="72" t="str">
+      <c r="Z16" s="72" t="str">
         <f>'Tube K'!G14</f>
         <v>H8</v>
       </c>
-      <c r="AD16" s="73">
+      <c r="AA16" s="73">
         <f>'Tube K'!F14</f>
         <v>1.7000669240000015</v>
       </c>
-      <c r="AE16" s="74">
+      <c r="AB16" s="74">
         <v>3.6550823452981924</v>
       </c>
-      <c r="AF16" s="72" t="str">
+      <c r="AC16" s="72" t="str">
         <f>'Tube L'!G14</f>
         <v>B10</v>
       </c>
-      <c r="AG16" s="73">
+      <c r="AD16" s="73">
         <f>'Tube L'!F14</f>
         <v>1.7006406230000017</v>
       </c>
-      <c r="AH16" s="76">
+      <c r="AE16" s="76">
         <v>3.2130787790275885</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:31">
       <c r="A17" s="56">
         <v>14</v>
       </c>
@@ -20519,73 +20133,62 @@
         <v>0.92628852915272575</v>
       </c>
       <c r="Q17" s="72" t="str">
-        <f>'Tube F'!G15</f>
-        <v>D5</v>
-      </c>
-      <c r="R17" s="73">
-        <f>'Tube F'!F15</f>
-        <v>1.6975262569999998</v>
-      </c>
-      <c r="S17" s="74">
-        <v>0.87072908873060895</v>
-      </c>
-      <c r="T17" s="72" t="str">
         <f>'Tube H'!G15</f>
         <v>G8</v>
       </c>
-      <c r="U17" s="73">
+      <c r="R17" s="73">
         <f>'Tube H'!F15</f>
         <v>1.6979087230000012</v>
       </c>
-      <c r="V17" s="74">
+      <c r="S17" s="74">
         <v>1.4082539090678921</v>
       </c>
-      <c r="W17" s="72" t="str">
+      <c r="T17" s="72" t="str">
         <f>'Tube I'!G15</f>
         <v>C2</v>
       </c>
-      <c r="X17" s="73">
+      <c r="U17" s="73">
         <f>'Tube I'!F15</f>
         <v>1.6959690740000006</v>
       </c>
-      <c r="Y17" s="74">
+      <c r="V17" s="74">
         <v>1.5935058805409392</v>
       </c>
-      <c r="Z17" s="72" t="str">
+      <c r="W17" s="72" t="str">
         <f>'Tube J'!G15</f>
         <v>D5</v>
       </c>
-      <c r="AA17" s="73">
+      <c r="X17" s="73">
         <f>'Tube J'!F15</f>
         <v>1.6969252390000023</v>
       </c>
-      <c r="AB17" s="74">
+      <c r="Y17" s="74">
         <v>1.8608803690572027</v>
       </c>
-      <c r="AC17" s="72" t="str">
+      <c r="Z17" s="72" t="str">
         <f>'Tube K'!G15</f>
         <v>G8</v>
       </c>
-      <c r="AD17" s="73">
+      <c r="AA17" s="73">
         <f>'Tube K'!F15</f>
         <v>1.6956958839999992</v>
       </c>
-      <c r="AE17" s="74">
+      <c r="AB17" s="74">
         <v>2.033741576028246</v>
       </c>
-      <c r="AF17" s="72" t="str">
+      <c r="AC17" s="72" t="str">
         <f>'Tube L'!G15</f>
         <v>A10</v>
       </c>
-      <c r="AG17" s="73">
+      <c r="AD17" s="73">
         <f>'Tube L'!F15</f>
         <v>1.6951768229999988</v>
       </c>
-      <c r="AH17" s="74">
+      <c r="AE17" s="74">
         <v>1.5855331251463562</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:31">
       <c r="A18" s="56">
         <v>15</v>
       </c>
@@ -20645,73 +20248,62 @@
         <v>0.60030851296893195</v>
       </c>
       <c r="Q18" s="72" t="str">
-        <f>'Tube F'!G16</f>
-        <v>E5</v>
-      </c>
-      <c r="R18" s="73">
-        <f>'Tube F'!F16</f>
-        <v>1.6920624570000005</v>
-      </c>
-      <c r="S18" s="74">
-        <v>0.51497404053780282</v>
-      </c>
-      <c r="T18" s="72" t="str">
         <f>'Tube H'!G16</f>
         <v>F8</v>
       </c>
-      <c r="U18" s="73">
+      <c r="R18" s="73">
         <f>'Tube H'!F16</f>
         <v>1.6913521630000012</v>
       </c>
-      <c r="V18" s="74">
+      <c r="S18" s="74">
         <v>0.86216644444070034</v>
       </c>
-      <c r="W18" s="72" t="str">
+      <c r="T18" s="72" t="str">
         <f>'Tube I'!G16</f>
         <v>B2</v>
       </c>
-      <c r="X18" s="73">
+      <c r="U18" s="73">
         <f>'Tube I'!F16</f>
         <v>1.6905052739999995</v>
       </c>
-      <c r="Y18" s="74">
+      <c r="V18" s="74">
         <v>0.93110866262947634</v>
       </c>
-      <c r="Z18" s="72" t="str">
+      <c r="W18" s="72" t="str">
         <f>'Tube J'!G16</f>
         <v>E5</v>
       </c>
-      <c r="AA18" s="73">
+      <c r="X18" s="73">
         <f>'Tube J'!F16</f>
         <v>1.6914614389999993</v>
       </c>
-      <c r="AB18" s="74">
+      <c r="Y18" s="74">
         <v>1.074126868288354</v>
       </c>
-      <c r="AC18" s="72" t="str">
+      <c r="Z18" s="72" t="str">
         <f>'Tube K'!G16</f>
         <v>F8</v>
       </c>
-      <c r="AD18" s="73">
+      <c r="AA18" s="73">
         <f>'Tube K'!F16</f>
         <v>1.689139324000001</v>
       </c>
-      <c r="AE18" s="74">
+      <c r="AB18" s="74">
         <v>0.97009956353103932</v>
       </c>
-      <c r="AF18" s="72" t="str">
+      <c r="AC18" s="72" t="str">
         <f>'Tube L'!G16</f>
         <v>A11</v>
       </c>
-      <c r="AG18" s="73">
+      <c r="AD18" s="73">
         <f>'Tube L'!F16</f>
         <v>1.6897130229999995</v>
       </c>
-      <c r="AH18" s="74">
+      <c r="AE18" s="74">
         <v>0.75157684577780914</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:31">
       <c r="A19" s="56">
         <v>16</v>
       </c>
@@ -20771,73 +20363,62 @@
         <v>0.32866264024099273</v>
       </c>
       <c r="Q19" s="72" t="str">
-        <f>'Tube F'!G17</f>
-        <v>F5</v>
-      </c>
-      <c r="R19" s="73">
-        <f>'Tube F'!F17</f>
-        <v>1.6855058970000023</v>
-      </c>
-      <c r="S19" s="74">
-        <v>0.28934871395737832</v>
-      </c>
-      <c r="T19" s="72" t="str">
         <f>'Tube H'!G17</f>
         <v>E8</v>
       </c>
-      <c r="U19" s="73">
+      <c r="R19" s="73">
         <f>'Tube H'!F17</f>
         <v>1.6858883630000019</v>
       </c>
-      <c r="V19" s="74">
+      <c r="S19" s="74">
         <v>0.48128013292756505</v>
       </c>
-      <c r="W19" s="72" t="str">
+      <c r="T19" s="72" t="str">
         <f>'Tube I'!G17</f>
         <v>A2</v>
       </c>
-      <c r="X19" s="73">
+      <c r="U19" s="73">
         <f>'Tube I'!F17</f>
         <v>1.6841399470000002</v>
       </c>
-      <c r="Y19" s="74">
+      <c r="V19" s="74">
         <v>0.51437092335897239</v>
       </c>
-      <c r="Z19" s="72" t="str">
+      <c r="W19" s="72" t="str">
         <f>'Tube J'!G17</f>
         <v>F5</v>
       </c>
-      <c r="AA19" s="73">
+      <c r="X19" s="73">
         <f>'Tube J'!F17</f>
         <v>1.6850961120000001</v>
       </c>
-      <c r="AB19" s="74">
+      <c r="Y19" s="74">
         <v>0.52527351853688375</v>
       </c>
-      <c r="AC19" s="72" t="str">
+      <c r="Z19" s="72" t="str">
         <f>'Tube K'!G17</f>
         <v>E8</v>
       </c>
-      <c r="AD19" s="73">
+      <c r="AA19" s="73">
         <f>'Tube K'!F17</f>
         <v>1.6847682840000004</v>
       </c>
-      <c r="AE19" s="74">
+      <c r="AB19" s="74">
         <v>0.43414315716801766</v>
       </c>
-      <c r="AF19" s="72" t="str">
+      <c r="AC19" s="72" t="str">
         <f>'Tube L'!G17</f>
         <v>B11</v>
       </c>
-      <c r="AG19" s="73">
+      <c r="AD19" s="73">
         <f>'Tube L'!F17</f>
         <v>1.6842492230000001</v>
       </c>
-      <c r="AH19" s="74">
+      <c r="AE19" s="74">
         <v>0.46167390368135197</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:31">
       <c r="A20" s="56">
         <v>17</v>
       </c>
@@ -20897,73 +20478,62 @@
         <v>0.186556686498214</v>
       </c>
       <c r="Q20" s="72" t="str">
-        <f>'Tube F'!G18</f>
-        <v>G5</v>
-      </c>
-      <c r="R20" s="73">
-        <f>'Tube F'!F18</f>
-        <v>1.680042097000003</v>
-      </c>
-      <c r="S20" s="74">
-        <v>0.16708993260430352</v>
-      </c>
-      <c r="T20" s="72" t="str">
         <f>'Tube H'!G18</f>
         <v>D8</v>
       </c>
-      <c r="U20" s="73">
+      <c r="R20" s="73">
         <f>'Tube H'!F18</f>
         <v>1.6815173230000031</v>
       </c>
-      <c r="V20" s="74">
+      <c r="S20" s="74">
         <v>0.29230319487075834</v>
       </c>
-      <c r="W20" s="72" t="str">
+      <c r="T20" s="72" t="str">
         <f>'Tube I'!G18</f>
         <v>A3</v>
       </c>
-      <c r="X20" s="73">
+      <c r="U20" s="73">
         <f>'Tube I'!F18</f>
         <v>1.6786761470000009</v>
       </c>
-      <c r="Y20" s="74">
+      <c r="V20" s="74">
         <v>0.35201928402537958</v>
       </c>
-      <c r="Z20" s="72" t="str">
+      <c r="W20" s="72" t="str">
         <f>'Tube J'!G18</f>
         <v>G5</v>
       </c>
-      <c r="AA20" s="73">
+      <c r="X20" s="73">
         <f>'Tube J'!F18</f>
         <v>1.6807250720000013</v>
       </c>
-      <c r="AB20" s="74">
+      <c r="Y20" s="74">
         <v>0.36850677441939689</v>
       </c>
-      <c r="AC20" s="72" t="str">
+      <c r="Z20" s="72" t="str">
         <f>'Tube K'!G18</f>
         <v>D8</v>
       </c>
-      <c r="AD20" s="73">
+      <c r="AA20" s="73">
         <f>'Tube K'!F18</f>
         <v>1.6771189640000017</v>
       </c>
-      <c r="AE20" s="74">
+      <c r="AB20" s="74">
         <v>0.26860130154601475</v>
       </c>
-      <c r="AF20" s="72" t="str">
+      <c r="AC20" s="72" t="str">
         <f>'Tube L'!G18</f>
         <v>C11</v>
       </c>
-      <c r="AG20" s="73">
+      <c r="AD20" s="73">
         <f>'Tube L'!F18</f>
         <v>1.6787854230000008</v>
       </c>
-      <c r="AH20" s="74">
+      <c r="AE20" s="74">
         <v>0.34396942240762102</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:31">
       <c r="A21" s="56">
         <v>18</v>
       </c>
@@ -21023,73 +20593,62 @@
         <v>0.13061582989787615</v>
       </c>
       <c r="Q21" s="72" t="str">
-        <f>'Tube F'!G19</f>
-        <v>H5</v>
-      </c>
-      <c r="R21" s="73">
-        <f>'Tube F'!F19</f>
-        <v>1.6713000170000001</v>
-      </c>
-      <c r="S21" s="74">
-        <v>9.9071990403470409E-2</v>
-      </c>
-      <c r="T21" s="72" t="str">
         <f>'Tube H'!G19</f>
         <v>C8</v>
       </c>
-      <c r="U21" s="73">
+      <c r="R21" s="73">
         <f>'Tube H'!F19</f>
         <v>1.6738680030000008</v>
       </c>
-      <c r="V21" s="74">
+      <c r="S21" s="74">
         <v>0.1848448447315528</v>
       </c>
-      <c r="W21" s="72" t="str">
+      <c r="T21" s="72" t="str">
         <f>'Tube I'!G19</f>
         <v>B3</v>
       </c>
-      <c r="X21" s="73">
+      <c r="U21" s="73">
         <f>'Tube I'!F19</f>
         <v>1.6701252999999987</v>
       </c>
-      <c r="Y21" s="74">
+      <c r="V21" s="74">
         <v>0.27572659719057441</v>
       </c>
-      <c r="Z21" s="72" t="str">
+      <c r="W21" s="72" t="str">
         <f>'Tube J'!G19</f>
         <v>H5</v>
       </c>
-      <c r="AA21" s="73">
+      <c r="X21" s="73">
         <f>'Tube J'!F19</f>
         <v>1.673075751999999</v>
       </c>
-      <c r="AB21" s="74">
+      <c r="Y21" s="74">
         <v>0.32635670311874443</v>
       </c>
-      <c r="AC21" s="72" t="str">
+      <c r="Z21" s="72" t="str">
         <f>'Tube K'!G19</f>
         <v>C8</v>
       </c>
-      <c r="AD21" s="73">
+      <c r="AA21" s="73">
         <f>'Tube K'!F19</f>
         <v>1.670562404</v>
       </c>
-      <c r="AE21" s="74">
+      <c r="AB21" s="74">
         <v>0.21315486415976745</v>
       </c>
-      <c r="AF21" s="72" t="str">
+      <c r="AC21" s="72" t="str">
         <f>'Tube L'!G19</f>
         <v>D11</v>
       </c>
-      <c r="AG21" s="73">
+      <c r="AD21" s="73">
         <f>'Tube L'!F19</f>
         <v>1.6724200959999997</v>
       </c>
-      <c r="AH21" s="74">
+      <c r="AE21" s="74">
         <v>0.32263228904116281</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:31">
       <c r="A22" s="56">
         <v>19</v>
       </c>
@@ -21149,73 +20708,62 @@
         <v>0.10644183438581396</v>
       </c>
       <c r="Q22" s="72" t="str">
-        <f>'Tube F'!G20</f>
-        <v>H6</v>
-      </c>
-      <c r="R22" s="73">
-        <f>'Tube F'!F20</f>
-        <v>1.6417954970000022</v>
-      </c>
-      <c r="S22" s="74">
-        <v>0.126975877008804</v>
-      </c>
-      <c r="T22" s="72" t="str">
         <f>'Tube H'!G20</f>
         <v>B8</v>
       </c>
-      <c r="U22" s="73">
+      <c r="R22" s="73">
         <f>'Tube H'!F20</f>
         <v>1.6509200430000011</v>
       </c>
-      <c r="V22" s="74">
+      <c r="S22" s="74">
         <v>0.23585783995430562</v>
       </c>
-      <c r="W22" s="72" t="str">
+      <c r="T22" s="72" t="str">
         <f>'Tube I'!G20</f>
         <v>C3</v>
       </c>
-      <c r="X22" s="73">
+      <c r="U22" s="73">
         <f>'Tube I'!F20</f>
         <v>1.6449918199999995</v>
       </c>
-      <c r="Y22" s="74">
+      <c r="V22" s="74">
         <v>0.26599271261839658</v>
       </c>
-      <c r="Z22" s="72" t="str">
+      <c r="W22" s="72" t="str">
         <f>'Tube J'!G20</f>
         <v>H6</v>
       </c>
-      <c r="AA22" s="73">
+      <c r="X22" s="73">
         <f>'Tube J'!F20</f>
         <v>1.6260870719999989</v>
       </c>
-      <c r="AB22" s="74">
+      <c r="Y22" s="74">
         <v>0.49298966625591395</v>
       </c>
-      <c r="AC22" s="72" t="str">
+      <c r="Z22" s="72" t="str">
         <f>'Tube K'!G20</f>
         <v>B8</v>
       </c>
-      <c r="AD22" s="73">
+      <c r="AA22" s="73">
         <f>'Tube K'!F20</f>
         <v>1.6456201569999998</v>
       </c>
-      <c r="AE22" s="74">
+      <c r="AB22" s="74">
         <v>0.32756706417265563</v>
       </c>
-      <c r="AF22" s="72" t="str">
+      <c r="AC22" s="72" t="str">
         <f>'Tube L'!G20</f>
         <v>E11</v>
       </c>
-      <c r="AG22" s="73">
+      <c r="AD22" s="73">
         <f>'Tube L'!F20</f>
         <v>1.6451010960000012</v>
       </c>
-      <c r="AH22" s="74">
+      <c r="AE22" s="74">
         <v>0.3954007773335862</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:31">
       <c r="A23" s="56">
         <v>20</v>
       </c>
@@ -21275,73 +20823,62 @@
         <v>7.474333852564144E-2</v>
       </c>
       <c r="Q23" s="72" t="str">
-        <f>'Tube F'!G21</f>
-        <v>G6</v>
-      </c>
-      <c r="R23" s="73">
-        <f>'Tube F'!F21</f>
-        <v>1.5392672900000015</v>
-      </c>
-      <c r="S23" s="74">
-        <v>0.10738762238853145</v>
-      </c>
-      <c r="T23" s="72" t="str">
         <f>'Tube H'!G21</f>
         <v>A8</v>
       </c>
-      <c r="U23" s="73">
+      <c r="R23" s="73">
         <f>'Tube H'!F21</f>
         <v>1.555849923000002</v>
       </c>
-      <c r="V23" s="74">
+      <c r="S23" s="74">
         <v>0.17393411672547257</v>
       </c>
-      <c r="W23" s="72" t="str">
+      <c r="T23" s="72" t="str">
         <f>'Tube I'!G21</f>
         <v>D3</v>
       </c>
-      <c r="X23" s="73">
+      <c r="U23" s="73">
         <f>'Tube I'!F21</f>
         <v>1.5291592600000001</v>
       </c>
-      <c r="Y23" s="74">
+      <c r="V23" s="74">
         <v>0.19200369307555129</v>
       </c>
-      <c r="Z23" s="72" t="str">
+      <c r="W23" s="72" t="str">
         <f>'Tube J'!G21</f>
         <v>G6</v>
       </c>
-      <c r="AA23" s="73">
+      <c r="X23" s="73">
         <f>'Tube J'!F21</f>
         <v>1.4359468320000008</v>
       </c>
-      <c r="AB23" s="74">
+      <c r="Y23" s="74">
         <v>0.16895956188504468</v>
       </c>
-      <c r="AC23" s="72" t="str">
+      <c r="Z23" s="72" t="str">
         <f>'Tube K'!G21</f>
         <v>A8</v>
       </c>
-      <c r="AD23" s="73">
+      <c r="AA23" s="73">
         <f>'Tube K'!F21</f>
         <v>1.5396224370000002</v>
       </c>
-      <c r="AE23" s="74">
+      <c r="AB23" s="74">
         <v>0.21834244968683922</v>
       </c>
-      <c r="AF23" s="72" t="str">
+      <c r="AC23" s="72" t="str">
         <f>'Tube L'!G21</f>
         <v>F11</v>
       </c>
-      <c r="AG23" s="73">
+      <c r="AD23" s="73">
         <f>'Tube L'!F21</f>
         <v>1.5347323360000011</v>
       </c>
-      <c r="AH23" s="74">
+      <c r="AE23" s="74">
         <v>0.25328087216592993</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:31">
       <c r="A24" s="56">
         <v>21</v>
       </c>
@@ -21401,73 +20938,62 @@
         <v>3.7925378374104618E-2</v>
       </c>
       <c r="Q24" s="69" t="str">
-        <f>'Tube F'!G22</f>
-        <v>F6</v>
-      </c>
-      <c r="R24" s="70">
-        <f>'Tube F'!F22</f>
-        <v>1.3032311300000003</v>
-      </c>
-      <c r="S24" s="71">
-        <v>5.8685013351341186E-2</v>
-      </c>
-      <c r="T24" s="69" t="str">
         <f>'Tube H'!G22</f>
         <v>A9</v>
       </c>
-      <c r="U24" s="70">
+      <c r="R24" s="70">
         <f>'Tube H'!F22</f>
         <v>1.3219992830000002</v>
       </c>
-      <c r="V24" s="71">
+      <c r="S24" s="71">
         <v>0.11257042914544983</v>
       </c>
-      <c r="W24" s="69" t="str">
+      <c r="T24" s="69" t="str">
         <f>'Tube I'!G22</f>
         <v>E3</v>
       </c>
-      <c r="X24" s="70">
+      <c r="U24" s="70">
         <f>'Tube I'!F22</f>
         <v>1.3029579400000006</v>
       </c>
-      <c r="Y24" s="71">
+      <c r="V24" s="71">
         <v>9.2337787109423253E-2</v>
       </c>
-      <c r="Z24" s="69" t="str">
+      <c r="W24" s="69" t="str">
         <f>'Tube J'!G22</f>
         <v>F6</v>
       </c>
-      <c r="AA24" s="70">
+      <c r="X24" s="70">
         <f>'Tube J'!F22</f>
         <v>1.2296064250000001</v>
       </c>
-      <c r="AB24" s="71">
+      <c r="Y24" s="71">
         <v>0.10129611941491433</v>
       </c>
-      <c r="AC24" s="69" t="str">
+      <c r="Z24" s="69" t="str">
         <f>'Tube K'!G22</f>
         <v>A9</v>
       </c>
-      <c r="AD24" s="70">
+      <c r="AA24" s="70">
         <f>'Tube K'!F22</f>
         <v>1.3090500770000002</v>
       </c>
-      <c r="AE24" s="71">
+      <c r="AB24" s="71">
         <v>0.1274667357647439</v>
       </c>
-      <c r="AF24" s="69" t="str">
+      <c r="AC24" s="69" t="str">
         <f>'Tube L'!G22</f>
         <v>G11</v>
       </c>
-      <c r="AG24" s="70">
+      <c r="AD24" s="70">
         <f>'Tube L'!F22</f>
         <v>1.3249224160000015</v>
       </c>
-      <c r="AH24" s="71">
+      <c r="AE24" s="71">
         <v>0.14133701129187534</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="12.9" thickBot="1">
+    <row r="25" spans="1:31" ht="12.9" thickBot="1">
       <c r="A25" s="56">
         <v>22</v>
       </c>
@@ -21527,76 +21053,65 @@
         <v>9.3935441570470405E-3</v>
       </c>
       <c r="Q25" s="78" t="str">
-        <f>'Tube F'!G23</f>
-        <v>E6</v>
-      </c>
-      <c r="R25" s="79">
-        <f>'Tube F'!F23</f>
-        <v>1.1185546900000016</v>
-      </c>
-      <c r="S25" s="80">
-        <v>1.4409500549630723E-2</v>
-      </c>
-      <c r="T25" s="78" t="str">
         <f>'Tube H'!G23</f>
         <v>B9</v>
       </c>
-      <c r="U25" s="79">
+      <c r="R25" s="79">
         <f>'Tube H'!F23</f>
         <v>1.1176531630000017</v>
       </c>
-      <c r="V25" s="80">
+      <c r="S25" s="80">
         <v>4.9406532150228111E-2</v>
       </c>
-      <c r="W25" s="69" t="str">
+      <c r="T25" s="69" t="str">
         <f>'Tube I'!G23</f>
         <v>F3</v>
       </c>
-      <c r="X25" s="70">
+      <c r="U25" s="70">
         <f>'Tube I'!F23</f>
         <v>1.0920552600000004</v>
       </c>
-      <c r="Y25" s="87">
+      <c r="V25" s="87">
         <v>2.6515235806560223E-2</v>
       </c>
-      <c r="Z25" s="88" t="str">
+      <c r="W25" s="88" t="str">
         <f>'Tube J'!G23</f>
         <v>E6</v>
       </c>
-      <c r="AA25" s="70">
+      <c r="X25" s="70">
         <f>'Tube J'!F23</f>
         <v>1.055857585</v>
       </c>
-      <c r="AB25" s="71">
+      <c r="Y25" s="71">
         <v>2.0747976937181237E-2</v>
       </c>
-      <c r="AC25" s="88" t="str">
+      <c r="Z25" s="88" t="str">
         <f>'Tube K'!G23</f>
         <v>B9</v>
       </c>
-      <c r="AD25" s="89">
+      <c r="AA25" s="89">
         <f>'Tube K'!F23</f>
         <v>1.1057967170000005</v>
       </c>
-      <c r="AE25" s="71">
+      <c r="AB25" s="71">
         <v>4.3046228922619147E-2</v>
       </c>
-      <c r="AF25" s="69" t="str">
+      <c r="AC25" s="69" t="str">
         <f>'Tube L'!G23</f>
         <v>H11</v>
       </c>
-      <c r="AG25" s="89">
+      <c r="AD25" s="89">
         <f>'Tube L'!F23</f>
         <v>1.0945412890000004</v>
       </c>
-      <c r="AH25" s="71">
+      <c r="AE25" s="71">
         <v>5.9546653396960858E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="12.9" thickTop="1">
+    <row r="26" spans="1:31" ht="12.9" thickTop="1">
       <c r="B26" s="73"/>
       <c r="C26" s="81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D26" s="82">
         <f>SUM(D5:D25)*40/TubeLoading!J29*100</f>
@@ -21604,7 +21119,7 @@
       </c>
       <c r="E26" s="73"/>
       <c r="F26" s="81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G26" s="82">
         <f>SUM(G5:G25)*40/TubeLoading!J30*100</f>
@@ -21612,7 +21127,7 @@
       </c>
       <c r="H26" s="73"/>
       <c r="I26" s="81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J26" s="82">
         <f>SUM(J5:J25)*40/TubeLoading!J31*100</f>
@@ -21620,7 +21135,7 @@
       </c>
       <c r="K26" s="83"/>
       <c r="L26" s="81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M26" s="82">
         <f>SUM(M5:M25)*40/TubeLoading!J32*100</f>
@@ -21628,7 +21143,7 @@
       </c>
       <c r="N26" s="73"/>
       <c r="O26" s="81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P26" s="82">
         <f>SUM(P5:P25)*40/TubeLoading!J33*100</f>
@@ -21636,54 +21151,46 @@
       </c>
       <c r="Q26" s="73"/>
       <c r="R26" s="81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S26" s="82">
-        <f>SUM(S5:S25)*40/TubeLoading!J34*100</f>
-        <v>43.316710745177964</v>
-      </c>
-      <c r="T26" s="73"/>
-      <c r="U26" s="81" t="s">
-        <v>189</v>
+        <f>SUM(S5:S25)*40/TubeLoading!J36*100</f>
+        <v>73.175961303571839</v>
+      </c>
+      <c r="T26" s="90"/>
+      <c r="U26" s="91" t="s">
+        <v>188</v>
       </c>
       <c r="V26" s="82">
-        <f>SUM(V5:V25)*40/TubeLoading!J36*100</f>
-        <v>73.175961303571839</v>
-      </c>
-      <c r="W26" s="90"/>
+        <f>SUM(V5:V25)*40/TubeLoading!J37*100</f>
+        <v>72.512401822235191</v>
+      </c>
+      <c r="W26" s="73"/>
       <c r="X26" s="91" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y26" s="82">
-        <f>SUM(Y5:Y25)*40/TubeLoading!J37*100</f>
-        <v>72.512401822235191</v>
+        <v>188</v>
+      </c>
+      <c r="Y26" s="92">
+        <f>SUM(Y5:Y25)*40/TubeLoading!J38*100</f>
+        <v>78.415989570170623</v>
       </c>
       <c r="Z26" s="73"/>
-      <c r="AA26" s="91" t="s">
-        <v>189</v>
+      <c r="AA26" s="81" t="s">
+        <v>188</v>
       </c>
       <c r="AB26" s="92">
-        <f>SUM(AB5:AB25)*40/TubeLoading!J38*100</f>
-        <v>78.415989570170623</v>
-      </c>
-      <c r="AC26" s="73"/>
+        <f>SUM(AB5:AB25)*40/TubeLoading!J39*100</f>
+        <v>74.520115167726274</v>
+      </c>
+      <c r="AC26" s="93"/>
       <c r="AD26" s="81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AE26" s="92">
-        <f>SUM(AE5:AE25)*40/TubeLoading!J39*100</f>
-        <v>74.520115167726274</v>
-      </c>
-      <c r="AF26" s="93"/>
-      <c r="AG26" s="81" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH26" s="92">
-        <f>SUM(AH5:AH25)*40/TubeLoading!J40*100</f>
+        <f>SUM(AE5:AE25)*40/TubeLoading!J40*100</f>
         <v>81.144822920007144</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:31">
       <c r="B27" s="73"/>
       <c r="C27" s="73"/>
       <c r="D27" s="73"/>
@@ -21697,7 +21204,7 @@
       <c r="L27" s="73"/>
       <c r="M27" s="73"/>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:31">
       <c r="B28" s="73"/>
       <c r="C28" s="73"/>
       <c r="D28" s="73"/>
@@ -21711,13 +21218,13 @@
       <c r="L28" s="73"/>
       <c r="M28" s="73"/>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:31">
       <c r="A29" s="62"/>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:31">
       <c r="A30" s="62"/>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:31">
       <c r="A31" s="62"/>
     </row>
     <row r="55" spans="1:13">
@@ -21781,18 +21288,17 @@
       <c r="A86" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
+  <mergeCells count="10">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22654,13 +22160,13 @@
         <v>148</v>
       </c>
       <c r="J28" s="109" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K28" s="110" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L28" s="110" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="14.15">
@@ -23372,7 +22878,7 @@
       <c r="B46" s="26"/>
       <c r="C46" s="23"/>
       <c r="F46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -25689,7 +25195,7 @@
         <v>1.6921990520000012</v>
       </c>
       <c r="G16" s="58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -25714,7 +25220,7 @@
         <v>1.6867352520000019</v>
       </c>
       <c r="G17" s="58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -25739,7 +25245,7 @@
         <v>1.6801786920000019</v>
       </c>
       <c r="G18" s="58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -25764,7 +25270,7 @@
         <v>1.6747148920000008</v>
       </c>
       <c r="G19" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -25789,7 +25295,7 @@
         <v>1.6484886520000011</v>
       </c>
       <c r="G20" s="58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -25814,7 +25320,7 @@
         <v>1.5435836920000003</v>
       </c>
       <c r="G21" s="58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -25839,7 +25345,7 @@
         <v>1.3383360450000001</v>
       </c>
       <c r="G22" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -25864,7 +25370,7 @@
         <v>1.1121347250000024</v>
       </c>
       <c r="G23" s="58" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -26159,7 +25665,7 @@
         <v>71</v>
       </c>
       <c r="H10" s="120" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:13">
